--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H2">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I2">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J2">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>11.637883660708</v>
+        <v>25.53020568585777</v>
       </c>
       <c r="R2">
-        <v>104.740952946372</v>
+        <v>229.77185117272</v>
       </c>
       <c r="S2">
-        <v>0.02346236484653157</v>
+        <v>0.03101466528484536</v>
       </c>
       <c r="T2">
-        <v>0.02346236484653158</v>
+        <v>0.03101466528484536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H3">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I3">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J3">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>7.205047867938666</v>
+        <v>8.032566492794667</v>
       </c>
       <c r="R3">
-        <v>64.845430811448</v>
+        <v>72.29309843515199</v>
       </c>
       <c r="S3">
-        <v>0.01452561881032047</v>
+        <v>0.009758141560539505</v>
       </c>
       <c r="T3">
-        <v>0.01452561881032048</v>
+        <v>0.009758141560539507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H4">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I4">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J4">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>4.851040210153334</v>
+        <v>4.644549988786666</v>
       </c>
       <c r="R4">
-        <v>43.65936189138</v>
+        <v>41.80094989908</v>
       </c>
       <c r="S4">
-        <v>0.009779860206034108</v>
+        <v>0.00564230328080535</v>
       </c>
       <c r="T4">
-        <v>0.009779860206034111</v>
+        <v>0.00564230328080535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H5">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I5">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J5">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.2331937317877777</v>
+        <v>0.1381035080457778</v>
       </c>
       <c r="R5">
-        <v>2.09874358609</v>
+        <v>1.242931572412</v>
       </c>
       <c r="S5">
-        <v>0.000470126405679864</v>
+        <v>0.0001677712326099826</v>
       </c>
       <c r="T5">
-        <v>0.0004701264056798641</v>
+        <v>0.0001677712326099826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>383.299987</v>
       </c>
       <c r="I6">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J6">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>222.419016656438</v>
+        <v>437.6578876008422</v>
       </c>
       <c r="R6">
-        <v>2001.771149907942</v>
+        <v>3938.920988407579</v>
       </c>
       <c r="S6">
-        <v>0.4484042176172314</v>
+        <v>0.5316765975266577</v>
       </c>
       <c r="T6">
-        <v>0.4484042176172315</v>
+        <v>0.5316765975266577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>383.299987</v>
       </c>
       <c r="I7">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J7">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
         <v>137.7002647964253</v>
@@ -883,10 +883,10 @@
         <v>1239.302383167828</v>
       </c>
       <c r="S7">
-        <v>0.2776083647429409</v>
+        <v>0.1672813636852694</v>
       </c>
       <c r="T7">
-        <v>0.277608364742941</v>
+        <v>0.1672813636852694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>383.299987</v>
       </c>
       <c r="I8">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J8">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>92.71132318893667</v>
+        <v>79.62035096626333</v>
       </c>
       <c r="R8">
-        <v>834.40190870043</v>
+        <v>716.58315869637</v>
       </c>
       <c r="S8">
-        <v>0.1869091454666771</v>
+        <v>0.09672458441838845</v>
       </c>
       <c r="T8">
-        <v>0.1869091454666771</v>
+        <v>0.09672458441838845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>383.299987</v>
       </c>
       <c r="I9">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J9">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>4.456714126623888</v>
+        <v>2.367473664149222</v>
       </c>
       <c r="R9">
-        <v>40.110427139615</v>
+        <v>21.307262977343</v>
       </c>
       <c r="S9">
-        <v>0.008984885560299518</v>
+        <v>0.002876059996059821</v>
       </c>
       <c r="T9">
-        <v>0.00898488556029952</v>
+        <v>0.002876059996059821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H10">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I10">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J10">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>7.197445386946001</v>
+        <v>84.73893713763555</v>
       </c>
       <c r="R10">
-        <v>64.77700848251401</v>
+        <v>762.65043423872</v>
       </c>
       <c r="S10">
-        <v>0.01451029195296487</v>
+        <v>0.1029427574636877</v>
       </c>
       <c r="T10">
-        <v>0.01451029195296488</v>
+        <v>0.1029427574636877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H11">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I11">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J11">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>4.455959524230667</v>
+        <v>26.66140474786133</v>
       </c>
       <c r="R11">
-        <v>40.103635718076</v>
+        <v>239.952642730752</v>
       </c>
       <c r="S11">
-        <v>0.008983364256497211</v>
+        <v>0.03238887122389134</v>
       </c>
       <c r="T11">
-        <v>0.008983364256497215</v>
+        <v>0.03238887122389135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H12">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I12">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J12">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>3.000124249423334</v>
+        <v>15.41602266645333</v>
       </c>
       <c r="R12">
-        <v>27.00111824481001</v>
+        <v>138.74420399808</v>
       </c>
       <c r="S12">
-        <v>0.006048351382180317</v>
+        <v>0.01872772937699014</v>
       </c>
       <c r="T12">
-        <v>0.006048351382180318</v>
+        <v>0.01872772937699014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H13">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I13">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J13">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>0.1442185880227778</v>
+        <v>0.4583881787235555</v>
       </c>
       <c r="R13">
-        <v>1.297967292205</v>
+        <v>4.125493608512</v>
       </c>
       <c r="S13">
-        <v>0.0002907495235810074</v>
+        <v>0.0005568602191683943</v>
       </c>
       <c r="T13">
-        <v>0.0002907495235810075</v>
+        <v>0.0005568602191683943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H14">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I14">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J14">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>0.005466761353999999</v>
+        <v>0.1327920072955555</v>
       </c>
       <c r="R14">
-        <v>0.04920085218599999</v>
+        <v>1.19512806566</v>
       </c>
       <c r="S14">
-        <v>1.102117473897002E-05</v>
+        <v>0.0001613187026164777</v>
       </c>
       <c r="T14">
-        <v>1.102117473897002E-05</v>
+        <v>0.0001613187026164777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H15">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I15">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J15">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>0.003384487969333333</v>
+        <v>0.04178033821733333</v>
       </c>
       <c r="R15">
-        <v>0.030460391724</v>
+        <v>0.376023043956</v>
       </c>
       <c r="S15">
-        <v>6.823241567819949E-06</v>
+        <v>5.075568999493115E-05</v>
       </c>
       <c r="T15">
-        <v>6.823241567819952E-06</v>
+        <v>5.075568999493116E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H16">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I16">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J16">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>0.002278720076666667</v>
+        <v>0.02415801594333333</v>
       </c>
       <c r="R16">
-        <v>0.02050848069</v>
+        <v>0.21742214349</v>
       </c>
       <c r="S16">
-        <v>4.593976308800564E-06</v>
+        <v>2.934769847324351E-05</v>
       </c>
       <c r="T16">
-        <v>4.593976308800566E-06</v>
+        <v>2.934769847324351E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H17">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I17">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J17">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.0001095400605555555</v>
+        <v>0.0007183272345555556</v>
       </c>
       <c r="R17">
-        <v>0.0009858605449999999</v>
+        <v>0.006464945111</v>
       </c>
       <c r="S17">
-        <v>2.208364459547497E-07</v>
+        <v>8.726400021551816E-07</v>
       </c>
       <c r="T17">
-        <v>2.208364459547497E-07</v>
+        <v>8.726400021551816E-07</v>
       </c>
     </row>
   </sheetData>
